--- a/data/TrueSApopulation.xlsx
+++ b/data/TrueSApopulation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8E9CAD-8365-5547-B0E8-12236C9A8CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EA8A9F-503A-6A41-BB32-EA40256C7DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="3660" windowWidth="26840" windowHeight="15940" xr2:uid="{38084F2E-2A4B-8A4B-BB26-2DA938728508}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{38084F2E-2A4B-8A4B-BB26-2DA938728508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:AE93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
